--- a/AccountBook/Account Book.xlsx
+++ b/AccountBook/Account Book.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,17 +462,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>내역</t>
+          <t>용돈</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>점심</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수입 및 지출</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="n">
-        <v>950</v>
+      <c r="E4" t="n">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
